--- a/Historias de Usuarios.xlsx
+++ b/Historias de Usuarios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -334,18 +334,6 @@
   </si>
   <si>
     <t>Se adapatara las pantallas para que el usuario este conforme</t>
-  </si>
-  <si>
-    <t>Sesion Offline</t>
-  </si>
-  <si>
-    <t>La aplicación funciona en modo offline con los eventos que estan asociados al usuario</t>
-  </si>
-  <si>
-    <t>Cuando la cuenta mantuvo la ultima sesion iniciada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se mantine activa la sesion para visualizar los eventos </t>
   </si>
   <si>
     <t>US-013</t>
@@ -897,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -936,11 +924,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,31 +970,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1009"/>
+  <dimension ref="A1:M1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1312,7 +1306,7 @@
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
     <col min="11" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="34" customWidth="1"/>
     <col min="14" max="26" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1344,18 +1338,18 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -1391,17 +1385,17 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" ht="60" customHeight="1">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
+      <c r="E5" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="F5" s="8">
         <v>1</v>
@@ -1413,7 +1407,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>40</v>
@@ -1422,10 +1416,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="60" customHeight="1">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="9">
         <v>2</v>
       </c>
@@ -1445,16 +1439,16 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12" ht="60" customHeight="1">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="C7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="8">
@@ -1467,7 +1461,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>31</v>
@@ -1476,10 +1470,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="60" customHeight="1">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="9">
         <v>2</v>
       </c>
@@ -1499,16 +1493,16 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12" ht="60" customHeight="1">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="32" t="s">
         <v>87</v>
       </c>
       <c r="F9" s="9">
@@ -1521,7 +1515,7 @@
         <v>89</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>48</v>
@@ -1530,10 +1524,10 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="2:12" ht="60" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="9">
         <v>1</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>47</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>90</v>
@@ -1556,13 +1550,13 @@
       <c r="B11" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>136</v>
+      <c r="C11" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="4">
@@ -1584,10 +1578,10 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" ht="60" customHeight="1">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="4">
         <v>2</v>
       </c>
@@ -1607,10 +1601,10 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" ht="60" customHeight="1">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
@@ -1630,16 +1624,16 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="60" customHeight="1">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
       <c r="F14" s="5">
@@ -1661,10 +1655,10 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" ht="60" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="7">
         <v>2</v>
       </c>
@@ -1684,14 +1678,14 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="2:12" ht="60" customHeight="1">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>136</v>
+      <c r="C16" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>52</v>
@@ -1715,10 +1709,10 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" ht="60" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="9">
         <v>2</v>
       </c>
@@ -1738,17 +1732,17 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" ht="60" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
@@ -1760,7 +1754,7 @@
         <v>62</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>63</v>
@@ -1769,7 +1763,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12" ht="60" customHeight="1">
-      <c r="B19" s="25"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
@@ -1783,7 +1777,7 @@
         <v>66</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>67</v>
@@ -1792,10 +1786,10 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12" ht="60" customHeight="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="9">
         <v>3</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>69</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>70</v>
@@ -1815,17 +1809,17 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="2:12" ht="60" customHeight="1">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>124</v>
+      <c r="D21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -1837,7 +1831,7 @@
         <v>74</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J21" s="11" t="s">
         <v>75</v>
@@ -1846,10 +1840,10 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="2:12" ht="60" customHeight="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="13">
         <v>2</v>
       </c>
@@ -1869,16 +1863,16 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="2:12" ht="60" customHeight="1">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="9">
@@ -1891,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>84</v>
@@ -1900,10 +1894,10 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="2:12" ht="60" customHeight="1">
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="9">
         <v>2</v>
       </c>
@@ -1914,7 +1908,7 @@
         <v>91</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J24" s="12" t="s">
         <v>92</v>
@@ -1923,17 +1917,17 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="2:12" ht="60" customHeight="1">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>133</v>
+      <c r="D25" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
@@ -1945,7 +1939,7 @@
         <v>95</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J25" s="11" t="s">
         <v>96</v>
@@ -1954,10 +1948,10 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="2:12" ht="60" customHeight="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="9">
         <v>2</v>
       </c>
@@ -1968,7 +1962,7 @@
         <v>98</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J26" s="11" t="s">
         <v>96</v>
@@ -1977,17 +1971,17 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="2:12" ht="60" customHeight="1">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>100</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F27" s="10">
         <v>1</v>
@@ -2008,133 +2002,121 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="60" customHeight="1">
-      <c r="B28" s="17"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="B28" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="F28" s="10">
-        <v>2</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" ht="60" customHeight="1">
-      <c r="B29" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="10">
+        <v>2</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="H29" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12" ht="60" customHeight="1">
-      <c r="B30" s="17"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="B30" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>115</v>
+      </c>
       <c r="F30" s="10">
-        <v>2</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>149</v>
+      <c r="H30" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12" ht="60" customHeight="1">
-      <c r="B31" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>119</v>
-      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
       <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>122</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:12" ht="60" customHeight="1">
-      <c r="B32" s="17"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="10">
-        <v>2</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>117</v>
-      </c>
+    <row r="32" spans="2:12">
+      <c r="B32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
@@ -3194,7 +3176,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="2:12">
+    <row r="129" spans="2:10">
       <c r="B129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -3202,10 +3184,8 @@
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-    </row>
-    <row r="130" spans="2:12">
+    </row>
+    <row r="130" spans="2:10">
       <c r="B130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -3214,7 +3194,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
     </row>
-    <row r="131" spans="2:12">
+    <row r="131" spans="2:10">
       <c r="B131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -3223,7 +3203,7 @@
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
     </row>
-    <row r="132" spans="2:12">
+    <row r="132" spans="2:10">
       <c r="B132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
@@ -3232,7 +3212,7 @@
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="2:12">
+    <row r="133" spans="2:10">
       <c r="B133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
@@ -3241,7 +3221,7 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="2:12">
+    <row r="134" spans="2:10">
       <c r="B134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -3250,7 +3230,7 @@
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="2:12">
+    <row r="135" spans="2:10">
       <c r="B135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
@@ -3259,7 +3239,7 @@
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="2:12">
+    <row r="136" spans="2:10">
       <c r="B136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
@@ -3268,7 +3248,7 @@
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
     </row>
-    <row r="137" spans="2:12">
+    <row r="137" spans="2:10">
       <c r="B137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
@@ -3277,7 +3257,7 @@
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
     </row>
-    <row r="138" spans="2:12">
+    <row r="138" spans="2:10">
       <c r="B138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
@@ -3286,7 +3266,7 @@
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="2:12">
+    <row r="139" spans="2:10">
       <c r="B139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
@@ -3295,7 +3275,7 @@
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="2:12">
+    <row r="140" spans="2:10">
       <c r="B140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
@@ -3304,7 +3284,7 @@
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:10">
       <c r="B141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
@@ -3313,7 +3293,7 @@
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="2:12">
+    <row r="142" spans="2:10">
       <c r="B142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
@@ -3322,7 +3302,7 @@
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="2:12">
+    <row r="143" spans="2:10">
       <c r="B143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
@@ -3331,7 +3311,7 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="2:12">
+    <row r="144" spans="2:10">
       <c r="B144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
@@ -11098,7 +11078,7 @@
       <c r="I1006" s="6"/>
       <c r="J1006" s="6"/>
     </row>
-    <row r="1007" spans="2:10">
+    <row r="1007" spans="2:10" ht="15" customHeight="1">
       <c r="B1007" s="6"/>
       <c r="D1007" s="6"/>
       <c r="E1007" s="6"/>
@@ -11116,17 +11096,43 @@
       <c r="I1008" s="6"/>
       <c r="J1008" s="6"/>
     </row>
-    <row r="1009" spans="2:10" ht="15" customHeight="1">
-      <c r="B1009" s="6"/>
-      <c r="D1009" s="6"/>
-      <c r="E1009" s="6"/>
-      <c r="G1009" s="6"/>
-      <c r="H1009" s="6"/>
-      <c r="I1009" s="6"/>
-      <c r="J1009" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="51">
+    <mergeCell ref="M1:M1048576"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
@@ -11141,47 +11147,8 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="M1:M1048576"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
